--- a/tmp/tmp_task.xlsx
+++ b/tmp/tmp_task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="80">
   <si>
     <t>SEGMENT</t>
   </si>
@@ -52,28 +52,28 @@
     <t>col_name</t>
   </si>
   <si>
+    <t>head</t>
+  </si>
+  <si>
     <t>main</t>
   </si>
   <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
     <t>tail</t>
   </si>
   <si>
-    <t>total_rolling_force4</t>
-  </si>
-  <si>
-    <t>total_rolling_force5</t>
-  </si>
-  <si>
-    <t>total_rolling_force6</t>
-  </si>
-  <si>
-    <t>total_rolling_force7</t>
+    <t>thick_clg</t>
+  </si>
+  <si>
+    <t>width_mfg</t>
+  </si>
+  <si>
+    <t>width_flt</t>
+  </si>
+  <si>
+    <t>crown40</t>
+  </si>
+  <si>
+    <t>wedge40</t>
   </si>
   <si>
     <t>c25_minus_c40</t>
@@ -82,64 +82,178 @@
     <t>c40_minus_c100</t>
   </si>
   <si>
+    <t>sym_flt</t>
+  </si>
+  <si>
+    <t>asym_flt</t>
+  </si>
+  <si>
+    <t>fdt</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>aimrate</t>
+  </si>
+  <si>
+    <t>absmean</t>
+  </si>
+  <si>
+    <t>stability</t>
+  </si>
+  <si>
     <t>mean</t>
   </si>
   <si>
+    <t>crown</t>
+  </si>
+  <si>
     <t>feedback</t>
   </si>
   <si>
-    <t>MAIN_TOTAL_ROLLING_FORCE4_MEAN</t>
-  </si>
-  <si>
-    <t>HEAD_TOTAL_ROLLING_FORCE4_MEAN</t>
-  </si>
-  <si>
-    <t>BODY_TOTAL_ROLLING_FORCE4_MEAN</t>
-  </si>
-  <si>
-    <t>TAIL_TOTAL_ROLLING_FORCE4_MEAN</t>
-  </si>
-  <si>
-    <t>MAIN_TOTAL_ROLLING_FORCE5_MEAN</t>
-  </si>
-  <si>
-    <t>HEAD_TOTAL_ROLLING_FORCE5_MEAN</t>
-  </si>
-  <si>
-    <t>BODY_TOTAL_ROLLING_FORCE5_MEAN</t>
-  </si>
-  <si>
-    <t>TAIL_TOTAL_ROLLING_FORCE5_MEAN</t>
-  </si>
-  <si>
-    <t>MAIN_TOTAL_ROLLING_FORCE6_MEAN</t>
-  </si>
-  <si>
-    <t>HEAD_TOTAL_ROLLING_FORCE6_MEAN</t>
-  </si>
-  <si>
-    <t>BODY_TOTAL_ROLLING_FORCE6_MEAN</t>
-  </si>
-  <si>
-    <t>TAIL_TOTAL_ROLLING_FORCE6_MEAN</t>
-  </si>
-  <si>
-    <t>MAIN_TOTAL_ROLLING_FORCE7_MEAN</t>
-  </si>
-  <si>
-    <t>HEAD_TOTAL_ROLLING_FORCE7_MEAN</t>
-  </si>
-  <si>
-    <t>BODY_TOTAL_ROLLING_FORCE7_MEAN</t>
-  </si>
-  <si>
-    <t>TAIL_TOTAL_ROLLING_FORCE7_MEAN</t>
+    <t>bite</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>HEAD_THICK_CLG_AIMRATE_120</t>
+  </si>
+  <si>
+    <t>HEAD_THICK_CLG_AIMRATE_140</t>
+  </si>
+  <si>
+    <t>MAIN_THICK_CLG_AIMRATE_50</t>
+  </si>
+  <si>
+    <t>MAIN_THICK_CLG_AIMRATE_80</t>
+  </si>
+  <si>
+    <t>MAIN_THICK_CLG_AIMRATE_100</t>
+  </si>
+  <si>
+    <t>TAIL_THICK_CLG_AIMRATE_120</t>
+  </si>
+  <si>
+    <t>TAIL_THICK_CLG_AIMRATE_140</t>
+  </si>
+  <si>
+    <t>HEAD_WIDTH_MFG_AIMRATE_0_32</t>
+  </si>
+  <si>
+    <t>MAIN_WIDTH_MFG_AIMRATE_0_20</t>
+  </si>
+  <si>
+    <t>TAIL_WIDTH_MFG_AIMRATE_0_32</t>
+  </si>
+  <si>
+    <t>HEAD_WIDTH_FLT_AIMRATE_0_32</t>
+  </si>
+  <si>
+    <t>MAIN_WIDTH_FLT_AIMRATE_0_20</t>
+  </si>
+  <si>
+    <t>TAIL_WIDTH_FLT_AIMRATE_0_32</t>
+  </si>
+  <si>
+    <t>MAIN_CROWN40_AIMRATE_30</t>
+  </si>
+  <si>
+    <t>MAIN_CROWN40_AIMRATE_25</t>
+  </si>
+  <si>
+    <t>MAIN_CROWN40_AIMRATE_20</t>
+  </si>
+  <si>
+    <t>MAIN_WEDGE40_AIMRATE_10</t>
+  </si>
+  <si>
+    <t>MAIN_WEDGE40_AIMRATE_15</t>
+  </si>
+  <si>
+    <t>MAIN_WEDGE40_AIMRATE_20</t>
+  </si>
+  <si>
+    <t>MAIN_WEDGE40_AIMRATE_25</t>
+  </si>
+  <si>
+    <t>MAIN_WEDGE40_ABSMEAN</t>
+  </si>
+  <si>
+    <t>MAIN_WEDGE40_STABILITY</t>
   </si>
   <si>
     <t>MAIN_C25_MINUS_C40_MEAN</t>
   </si>
   <si>
     <t>MAIN_C40_MINUS_C100_MEAN</t>
+  </si>
+  <si>
+    <t>HEAD_SYM_FLT_AIMRATE_50</t>
+  </si>
+  <si>
+    <t>HEAD_SYM_FLT_AIMRATE_35</t>
+  </si>
+  <si>
+    <t>HEAD_SYM_FLT_AIMRATE_30</t>
+  </si>
+  <si>
+    <t>HEAD_SYM_FLT_AIMRATE_25</t>
+  </si>
+  <si>
+    <t>HEAD_SYM_FLT_AIMRATE_20</t>
+  </si>
+  <si>
+    <t>HEAD_SYM_FLT_AIMRATE_15</t>
+  </si>
+  <si>
+    <t>HEAD_SYM_FLT_AIMRATE_10</t>
+  </si>
+  <si>
+    <t>MAIN_SYM_FLT_AIMRATE_5</t>
+  </si>
+  <si>
+    <t>HEAD_ASYM_FLT_AIMRATE_50</t>
+  </si>
+  <si>
+    <t>HEAD_ASYM_FLT_AIMRATE_35</t>
+  </si>
+  <si>
+    <t>HEAD_ASYM_FLT_AIMRATE_30</t>
+  </si>
+  <si>
+    <t>HEAD_ASYM_FLT_AIMRATE_25</t>
+  </si>
+  <si>
+    <t>HEAD_ASYM_FLT_AIMRATE_20</t>
+  </si>
+  <si>
+    <t>HEAD_ASYM_FLT_AIMRATE_15</t>
+  </si>
+  <si>
+    <t>HEAD_ASYM_FLT_AIMRATE_10</t>
+  </si>
+  <si>
+    <t>MAIN_ASYM_FLT_AIMRATE_5</t>
+  </si>
+  <si>
+    <t>MAIN_FDT_AIMRATE_15</t>
+  </si>
+  <si>
+    <t>MAIN_FDT_AIMRATE_18</t>
+  </si>
+  <si>
+    <t>MAIN_FDT_AIMRATE_20</t>
+  </si>
+  <si>
+    <t>MAIN_CT_AIMRATE_15</t>
+  </si>
+  <si>
+    <t>MAIN_CT_AIMRATE_18</t>
+  </si>
+  <si>
+    <t>MAIN_CT_AIMRATE_20</t>
   </si>
 </sst>
 </file>
@@ -497,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,19 +663,25 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.12</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -569,22 +689,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.14</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -592,22 +718,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.05</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -615,22 +747,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -638,22 +776,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -661,22 +805,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.12</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -687,19 +837,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.14</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -707,22 +863,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>32</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -730,22 +892,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -753,22 +921,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>32</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -776,22 +950,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>32</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -799,22 +979,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -822,22 +1008,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>32</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -848,19 +1040,25 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>0.03</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -868,22 +1066,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>0.025</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -891,22 +1095,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>0.02</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -914,22 +1124,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.01</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -937,22 +1153,822 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.015</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.02</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.025</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.01</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>35</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
         <v>23</v>
       </c>
-      <c r="M19" t="s">
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42">
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
         <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43">
+        <v>18</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46">
+        <v>18</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/tmp/tmp_task.xlsx
+++ b/tmp/tmp_task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>SEGMENT</t>
   </si>
@@ -52,27 +52,12 @@
     <t>col_name</t>
   </si>
   <si>
+    <t>main</t>
+  </si>
+  <si>
     <t>head</t>
   </si>
   <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>tail</t>
-  </si>
-  <si>
-    <t>thick_clg</t>
-  </si>
-  <si>
-    <t>width_mfg</t>
-  </si>
-  <si>
-    <t>width_flt</t>
-  </si>
-  <si>
-    <t>crown40</t>
-  </si>
-  <si>
     <t>wedge40</t>
   </si>
   <si>
@@ -88,12 +73,6 @@
     <t>asym_flt</t>
   </si>
   <si>
-    <t>fdt</t>
-  </si>
-  <si>
-    <t>ct</t>
-  </si>
-  <si>
     <t>aimrate</t>
   </si>
   <si>
@@ -106,66 +85,9 @@
     <t>mean</t>
   </si>
   <si>
-    <t>crown</t>
-  </si>
-  <si>
-    <t>feedback</t>
-  </si>
-  <si>
     <t>bite</t>
   </si>
   <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>HEAD_THICK_CLG_AIMRATE_120</t>
-  </si>
-  <si>
-    <t>HEAD_THICK_CLG_AIMRATE_140</t>
-  </si>
-  <si>
-    <t>MAIN_THICK_CLG_AIMRATE_50</t>
-  </si>
-  <si>
-    <t>MAIN_THICK_CLG_AIMRATE_80</t>
-  </si>
-  <si>
-    <t>MAIN_THICK_CLG_AIMRATE_100</t>
-  </si>
-  <si>
-    <t>TAIL_THICK_CLG_AIMRATE_120</t>
-  </si>
-  <si>
-    <t>TAIL_THICK_CLG_AIMRATE_140</t>
-  </si>
-  <si>
-    <t>HEAD_WIDTH_MFG_AIMRATE_0_32</t>
-  </si>
-  <si>
-    <t>MAIN_WIDTH_MFG_AIMRATE_0_20</t>
-  </si>
-  <si>
-    <t>TAIL_WIDTH_MFG_AIMRATE_0_32</t>
-  </si>
-  <si>
-    <t>HEAD_WIDTH_FLT_AIMRATE_0_32</t>
-  </si>
-  <si>
-    <t>MAIN_WIDTH_FLT_AIMRATE_0_20</t>
-  </si>
-  <si>
-    <t>TAIL_WIDTH_FLT_AIMRATE_0_32</t>
-  </si>
-  <si>
-    <t>MAIN_CROWN40_AIMRATE_30</t>
-  </si>
-  <si>
-    <t>MAIN_CROWN40_AIMRATE_25</t>
-  </si>
-  <si>
-    <t>MAIN_CROWN40_AIMRATE_20</t>
-  </si>
-  <si>
     <t>MAIN_WEDGE40_AIMRATE_10</t>
   </si>
   <si>
@@ -236,24 +158,6 @@
   </si>
   <si>
     <t>MAIN_ASYM_FLT_AIMRATE_5</t>
-  </si>
-  <si>
-    <t>MAIN_FDT_AIMRATE_15</t>
-  </si>
-  <si>
-    <t>MAIN_FDT_AIMRATE_18</t>
-  </si>
-  <si>
-    <t>MAIN_FDT_AIMRATE_20</t>
-  </si>
-  <si>
-    <t>MAIN_CT_AIMRATE_15</t>
-  </si>
-  <si>
-    <t>MAIN_CT_AIMRATE_18</t>
-  </si>
-  <si>
-    <t>MAIN_CT_AIMRATE_20</t>
   </si>
 </sst>
 </file>
@@ -611,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,25 +567,25 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -692,25 +596,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.14</v>
+        <v>0.015</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -718,28 +622,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -747,28 +651,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.08</v>
+        <v>0.025</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -776,28 +680,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -805,28 +703,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -834,28 +732,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.14</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -869,22 +761,16 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
         <v>31</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -895,25 +781,25 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -921,28 +807,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -950,28 +836,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -985,22 +871,22 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1008,28 +894,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1040,25 +926,25 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03</v>
+        <v>15</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1069,25 +955,25 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.025</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1095,28 +981,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1127,25 +1013,25 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1156,25 +1042,25 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.015</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1185,25 +1071,25 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.02</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1214,25 +1100,25 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.025</v>
+        <v>25</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1243,19 +1129,25 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1266,25 +1158,25 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.01</v>
+        <v>15</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1295,19 +1187,25 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1315,660 +1213,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>35</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>30</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>25</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>20</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>15</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>50</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>35</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>30</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>25</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>20</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>15</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42">
-        <v>15</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>33</v>
-      </c>
-      <c r="M42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43">
-        <v>18</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>33</v>
-      </c>
-      <c r="M43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44">
-        <v>20</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44" t="s">
-        <v>33</v>
-      </c>
-      <c r="M44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45">
-        <v>15</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45" t="s">
-        <v>33</v>
-      </c>
-      <c r="M45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46">
-        <v>18</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46" t="s">
-        <v>33</v>
-      </c>
-      <c r="M46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47">
-        <v>20</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>33</v>
-      </c>
-      <c r="M47" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
